--- a/Data_F/2023.xlsx
+++ b/Data_F/2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ocben\atpBetting\ATPBetting\Data_F\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA995E5A-08C0-4BE7-9CB1-325A3B6DE61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5D69D1-236C-45BA-91EB-4C88CEEAF900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DCB7E7CB-0397-46EB-9533-78456DD3EC32}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8722" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8803" uniqueCount="305">
   <si>
     <t>WTA</t>
   </si>
@@ -1325,13 +1325,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8D3C74-6B39-4E16-89C7-829C844B99E1}">
-  <dimension ref="A1:AF967"/>
+  <dimension ref="A1:AF975"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F943" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D943" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC956" activeCellId="1" sqref="AE956:AF967 AC956"/>
+      <selection pane="bottomRight" activeCell="S976" sqref="S976"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -92147,7 +92147,7 @@
         <v>264</v>
       </c>
       <c r="H948" s="4" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="I948">
         <v>3</v>
@@ -92239,7 +92239,7 @@
         <v>264</v>
       </c>
       <c r="H949" s="4" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="I949">
         <v>3</v>
@@ -92331,7 +92331,7 @@
         <v>264</v>
       </c>
       <c r="H950" s="4" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="I950">
         <v>3</v>
@@ -92423,7 +92423,7 @@
         <v>264</v>
       </c>
       <c r="H951" s="4" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="I951">
         <v>3</v>
@@ -92515,7 +92515,7 @@
         <v>264</v>
       </c>
       <c r="H952" s="4" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="I952">
         <v>3</v>
@@ -92607,7 +92607,7 @@
         <v>264</v>
       </c>
       <c r="H953" s="4" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="I953">
         <v>3</v>
@@ -92699,7 +92699,7 @@
         <v>264</v>
       </c>
       <c r="H954" s="4" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="I954">
         <v>3</v>
@@ -92791,7 +92791,7 @@
         <v>264</v>
       </c>
       <c r="H955" s="4" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="I955">
         <v>3</v>
@@ -92889,7 +92889,7 @@
         <v>264</v>
       </c>
       <c r="H956" s="4" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="I956">
         <v>3</v>
@@ -92911,6 +92911,27 @@
       </c>
       <c r="O956">
         <v>819</v>
+      </c>
+      <c r="P956">
+        <v>6</v>
+      </c>
+      <c r="Q956">
+        <v>4</v>
+      </c>
+      <c r="R956">
+        <v>6</v>
+      </c>
+      <c r="S956">
+        <v>2</v>
+      </c>
+      <c r="V956">
+        <v>2</v>
+      </c>
+      <c r="W956">
+        <v>0</v>
+      </c>
+      <c r="X956" t="s">
+        <v>40</v>
       </c>
       <c r="Y956">
         <v>1.69</v>
@@ -92960,7 +92981,7 @@
         <v>264</v>
       </c>
       <c r="H957" s="4" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="I957">
         <v>3</v>
@@ -92982,6 +93003,27 @@
       </c>
       <c r="O957">
         <v>1041</v>
+      </c>
+      <c r="P957">
+        <v>7</v>
+      </c>
+      <c r="Q957">
+        <v>6</v>
+      </c>
+      <c r="R957">
+        <v>6</v>
+      </c>
+      <c r="S957">
+        <v>1</v>
+      </c>
+      <c r="V957">
+        <v>2</v>
+      </c>
+      <c r="W957">
+        <v>0</v>
+      </c>
+      <c r="X957" t="s">
+        <v>40</v>
       </c>
       <c r="Y957">
         <v>1.65</v>
@@ -93031,52 +93073,79 @@
         <v>264</v>
       </c>
       <c r="H958" s="4" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="I958">
         <v>3</v>
       </c>
       <c r="J958" t="s">
+        <v>47</v>
+      </c>
+      <c r="K958" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="K958" t="s">
-        <v>47</v>
-      </c>
       <c r="L958">
+        <v>13</v>
+      </c>
+      <c r="M958">
         <v>25</v>
       </c>
-      <c r="M958">
-        <v>13</v>
-      </c>
       <c r="N958">
+        <v>2335</v>
+      </c>
+      <c r="O958">
         <v>1601</v>
       </c>
-      <c r="O958">
-        <v>2335</v>
+      <c r="P958">
+        <v>7</v>
+      </c>
+      <c r="Q958">
+        <v>5</v>
+      </c>
+      <c r="R958">
+        <v>1</v>
+      </c>
+      <c r="S958">
+        <v>6</v>
+      </c>
+      <c r="T958">
+        <v>7</v>
+      </c>
+      <c r="U958">
+        <v>6</v>
+      </c>
+      <c r="V958">
+        <v>2</v>
+      </c>
+      <c r="W958">
+        <v>1</v>
+      </c>
+      <c r="X958" t="s">
+        <v>40</v>
       </c>
       <c r="Y958">
+        <v>2.21</v>
+      </c>
+      <c r="Z958">
         <v>1.68</v>
       </c>
-      <c r="Z958">
+      <c r="AA958">
         <v>2.21</v>
       </c>
-      <c r="AA958">
+      <c r="AB958">
         <v>1.68</v>
       </c>
-      <c r="AB958">
+      <c r="AC958">
         <v>2.21</v>
       </c>
-      <c r="AC958">
+      <c r="AD958">
         <v>1.68</v>
       </c>
-      <c r="AD958">
+      <c r="AE958">
         <v>2.21</v>
       </c>
-      <c r="AE958">
+      <c r="AF958">
         <v>1.68</v>
-      </c>
-      <c r="AF958">
-        <v>2.21</v>
       </c>
     </row>
     <row r="959" spans="1:32" x14ac:dyDescent="0.4">
@@ -93102,7 +93171,7 @@
         <v>264</v>
       </c>
       <c r="H959" s="4" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="I959">
         <v>3</v>
@@ -93124,6 +93193,27 @@
       </c>
       <c r="O959">
         <v>1213</v>
+      </c>
+      <c r="P959">
+        <v>6</v>
+      </c>
+      <c r="Q959">
+        <v>4</v>
+      </c>
+      <c r="R959">
+        <v>7</v>
+      </c>
+      <c r="S959">
+        <v>6</v>
+      </c>
+      <c r="V959">
+        <v>2</v>
+      </c>
+      <c r="W959">
+        <v>0</v>
+      </c>
+      <c r="X959" t="s">
+        <v>40</v>
       </c>
       <c r="Y959">
         <v>1.22</v>
@@ -93173,52 +93263,79 @@
         <v>264</v>
       </c>
       <c r="H960" s="4" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="I960">
         <v>3</v>
       </c>
       <c r="J960" t="s">
+        <v>184</v>
+      </c>
+      <c r="K960" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K960" t="s">
-        <v>184</v>
-      </c>
       <c r="L960">
+        <v>34</v>
+      </c>
+      <c r="M960">
         <v>57</v>
       </c>
-      <c r="M960">
-        <v>34</v>
-      </c>
       <c r="N960">
+        <v>1245</v>
+      </c>
+      <c r="O960">
         <v>950</v>
       </c>
-      <c r="O960">
-        <v>1245</v>
+      <c r="P960">
+        <v>6</v>
+      </c>
+      <c r="Q960">
+        <v>3</v>
+      </c>
+      <c r="R960">
+        <v>4</v>
+      </c>
+      <c r="S960">
+        <v>6</v>
+      </c>
+      <c r="T960">
+        <v>6</v>
+      </c>
+      <c r="U960">
+        <v>3</v>
+      </c>
+      <c r="V960">
+        <v>2</v>
+      </c>
+      <c r="W960">
+        <v>1</v>
+      </c>
+      <c r="X960" t="s">
+        <v>40</v>
       </c>
       <c r="Y960">
+        <v>1.95</v>
+      </c>
+      <c r="Z960">
         <v>1.88</v>
       </c>
-      <c r="Z960">
+      <c r="AA960">
         <v>1.95</v>
       </c>
-      <c r="AA960">
+      <c r="AB960">
         <v>1.88</v>
       </c>
-      <c r="AB960">
+      <c r="AC960">
         <v>1.95</v>
       </c>
-      <c r="AC960">
+      <c r="AD960">
         <v>1.88</v>
       </c>
-      <c r="AD960">
+      <c r="AE960">
         <v>1.95</v>
       </c>
-      <c r="AE960">
+      <c r="AF960">
         <v>1.88</v>
-      </c>
-      <c r="AF960">
-        <v>1.95</v>
       </c>
     </row>
     <row r="961" spans="1:32" x14ac:dyDescent="0.4">
@@ -93244,7 +93361,7 @@
         <v>264</v>
       </c>
       <c r="H961" s="4" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="I961">
         <v>3</v>
@@ -93266,6 +93383,27 @@
       </c>
       <c r="O961">
         <v>1315</v>
+      </c>
+      <c r="P961">
+        <v>6</v>
+      </c>
+      <c r="Q961">
+        <v>3</v>
+      </c>
+      <c r="R961">
+        <v>6</v>
+      </c>
+      <c r="S961">
+        <v>2</v>
+      </c>
+      <c r="V961">
+        <v>2</v>
+      </c>
+      <c r="W961">
+        <v>0</v>
+      </c>
+      <c r="X961" t="s">
+        <v>40</v>
       </c>
       <c r="Y961">
         <v>1.03</v>
@@ -93315,7 +93453,7 @@
         <v>264</v>
       </c>
       <c r="H962" s="4" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="I962">
         <v>3</v>
@@ -93337,6 +93475,27 @@
       </c>
       <c r="O962">
         <v>903</v>
+      </c>
+      <c r="P962">
+        <v>6</v>
+      </c>
+      <c r="Q962">
+        <v>4</v>
+      </c>
+      <c r="R962">
+        <v>6</v>
+      </c>
+      <c r="S962">
+        <v>1</v>
+      </c>
+      <c r="V962">
+        <v>2</v>
+      </c>
+      <c r="W962">
+        <v>0</v>
+      </c>
+      <c r="X962" t="s">
+        <v>40</v>
       </c>
       <c r="Y962">
         <v>1.21</v>
@@ -93386,52 +93545,79 @@
         <v>264</v>
       </c>
       <c r="H963" s="4" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="I963">
         <v>3</v>
       </c>
       <c r="J963" t="s">
+        <v>58</v>
+      </c>
+      <c r="K963" t="s">
         <v>55</v>
       </c>
-      <c r="K963" t="s">
-        <v>58</v>
-      </c>
       <c r="L963">
+        <v>23</v>
+      </c>
+      <c r="M963">
         <v>21</v>
       </c>
-      <c r="M963">
-        <v>23</v>
-      </c>
       <c r="N963">
+        <v>1720</v>
+      </c>
+      <c r="O963">
         <v>1784</v>
       </c>
-      <c r="O963">
-        <v>1720</v>
+      <c r="P963">
+        <v>5</v>
+      </c>
+      <c r="Q963">
+        <v>7</v>
+      </c>
+      <c r="R963">
+        <v>6</v>
+      </c>
+      <c r="S963">
+        <v>4</v>
+      </c>
+      <c r="T963">
+        <v>6</v>
+      </c>
+      <c r="U963">
+        <v>2</v>
+      </c>
+      <c r="V963">
+        <v>2</v>
+      </c>
+      <c r="W963">
+        <v>1</v>
+      </c>
+      <c r="X963" t="s">
+        <v>40</v>
       </c>
       <c r="Y963">
+        <v>2.19</v>
+      </c>
+      <c r="Z963">
         <v>1.69</v>
       </c>
-      <c r="Z963">
+      <c r="AA963">
         <v>2.19</v>
       </c>
-      <c r="AA963">
+      <c r="AB963">
         <v>1.69</v>
       </c>
-      <c r="AB963">
+      <c r="AC963">
         <v>2.19</v>
       </c>
-      <c r="AC963">
+      <c r="AD963">
         <v>1.69</v>
       </c>
-      <c r="AD963">
+      <c r="AE963">
         <v>2.19</v>
       </c>
-      <c r="AE963">
+      <c r="AF963">
         <v>1.69</v>
-      </c>
-      <c r="AF963">
-        <v>2.19</v>
       </c>
     </row>
     <row r="964" spans="1:32" x14ac:dyDescent="0.4">
@@ -93457,52 +93643,73 @@
         <v>264</v>
       </c>
       <c r="H964" s="4" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="I964">
         <v>3</v>
       </c>
       <c r="J964" t="s">
+        <v>152</v>
+      </c>
+      <c r="K964" t="s">
         <v>121</v>
       </c>
-      <c r="K964" t="s">
-        <v>152</v>
-      </c>
       <c r="L964">
+        <v>9</v>
+      </c>
+      <c r="M964">
         <v>33</v>
       </c>
-      <c r="M964">
-        <v>9</v>
-      </c>
       <c r="N964">
+        <v>3246</v>
+      </c>
+      <c r="O964">
         <v>1253</v>
       </c>
-      <c r="O964">
-        <v>3246</v>
+      <c r="P964">
+        <v>6</v>
+      </c>
+      <c r="Q964">
+        <v>4</v>
+      </c>
+      <c r="R964">
+        <v>6</v>
+      </c>
+      <c r="S964">
+        <v>4</v>
+      </c>
+      <c r="V964">
+        <v>2</v>
+      </c>
+      <c r="W964">
+        <v>0</v>
+      </c>
+      <c r="X964" t="s">
+        <v>40</v>
       </c>
       <c r="Y964">
+        <v>2.29</v>
+      </c>
+      <c r="Z964">
         <v>1.64</v>
       </c>
-      <c r="Z964">
+      <c r="AA964">
         <v>2.29</v>
       </c>
-      <c r="AA964">
+      <c r="AB964">
         <v>1.64</v>
       </c>
-      <c r="AB964">
+      <c r="AC964">
         <v>2.29</v>
       </c>
-      <c r="AC964">
+      <c r="AD964">
         <v>1.64</v>
       </c>
-      <c r="AD964">
+      <c r="AE964">
         <v>2.29</v>
       </c>
-      <c r="AE964">
+      <c r="AF964">
         <v>1.64</v>
-      </c>
-      <c r="AF964">
-        <v>2.29</v>
       </c>
     </row>
     <row r="965" spans="1:32" x14ac:dyDescent="0.4">
@@ -93528,52 +93735,79 @@
         <v>264</v>
       </c>
       <c r="H965" s="4" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="I965">
         <v>3</v>
       </c>
       <c r="J965" t="s">
+        <v>135</v>
+      </c>
+      <c r="K965" t="s">
         <v>139</v>
       </c>
-      <c r="K965" t="s">
-        <v>135</v>
-      </c>
       <c r="L965">
+        <v>48</v>
+      </c>
+      <c r="M965">
         <v>26</v>
       </c>
-      <c r="M965">
-        <v>48</v>
-      </c>
       <c r="N965">
+        <v>1045</v>
+      </c>
+      <c r="O965">
         <v>1445</v>
       </c>
-      <c r="O965">
-        <v>1045</v>
+      <c r="P965">
+        <v>6</v>
+      </c>
+      <c r="Q965">
+        <v>4</v>
+      </c>
+      <c r="R965">
+        <v>0</v>
+      </c>
+      <c r="S965">
+        <v>6</v>
+      </c>
+      <c r="T965">
+        <v>6</v>
+      </c>
+      <c r="U965">
+        <v>4</v>
+      </c>
+      <c r="V965">
+        <v>2</v>
+      </c>
+      <c r="W965">
+        <v>1</v>
+      </c>
+      <c r="X965" t="s">
+        <v>40</v>
       </c>
       <c r="Y965">
+        <v>2.39</v>
+      </c>
+      <c r="Z965">
         <v>1.59</v>
       </c>
-      <c r="Z965">
+      <c r="AA965">
         <v>2.39</v>
       </c>
-      <c r="AA965">
+      <c r="AB965">
         <v>1.59</v>
       </c>
-      <c r="AB965">
+      <c r="AC965">
         <v>2.39</v>
       </c>
-      <c r="AC965">
+      <c r="AD965">
         <v>1.59</v>
       </c>
-      <c r="AD965">
+      <c r="AE965">
         <v>2.39</v>
       </c>
-      <c r="AE965">
+      <c r="AF965">
         <v>1.59</v>
-      </c>
-      <c r="AF965">
-        <v>2.39</v>
       </c>
     </row>
     <row r="966" spans="1:32" x14ac:dyDescent="0.4">
@@ -93599,7 +93833,7 @@
         <v>264</v>
       </c>
       <c r="H966" s="4" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="I966">
         <v>3</v>
@@ -93621,6 +93855,27 @@
       </c>
       <c r="O966">
         <v>142</v>
+      </c>
+      <c r="P966">
+        <v>6</v>
+      </c>
+      <c r="Q966">
+        <v>3</v>
+      </c>
+      <c r="R966">
+        <v>6</v>
+      </c>
+      <c r="S966">
+        <v>1</v>
+      </c>
+      <c r="V966">
+        <v>2</v>
+      </c>
+      <c r="W966">
+        <v>0</v>
+      </c>
+      <c r="X966" t="s">
+        <v>40</v>
       </c>
       <c r="Y966">
         <v>1.27</v>
@@ -93670,52 +93925,770 @@
         <v>264</v>
       </c>
       <c r="H967" s="4" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="I967">
         <v>3</v>
       </c>
       <c r="J967" t="s">
+        <v>45</v>
+      </c>
+      <c r="K967" t="s">
         <v>53</v>
       </c>
-      <c r="K967" t="s">
+      <c r="L967">
+        <v>29</v>
+      </c>
+      <c r="M967">
+        <v>16</v>
+      </c>
+      <c r="N967">
+        <v>1348</v>
+      </c>
+      <c r="O967">
+        <v>2172</v>
+      </c>
+      <c r="P967">
+        <v>6</v>
+      </c>
+      <c r="Q967">
+        <v>4</v>
+      </c>
+      <c r="R967">
+        <v>6</v>
+      </c>
+      <c r="S967">
+        <v>4</v>
+      </c>
+      <c r="V967">
+        <v>2</v>
+      </c>
+      <c r="W967">
+        <v>0</v>
+      </c>
+      <c r="X967" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y967">
+        <v>2.11</v>
+      </c>
+      <c r="Z967">
+        <v>1.74</v>
+      </c>
+      <c r="AA967">
+        <v>2.11</v>
+      </c>
+      <c r="AB967">
+        <v>1.74</v>
+      </c>
+      <c r="AC967">
+        <v>2.11</v>
+      </c>
+      <c r="AD967">
+        <v>1.74</v>
+      </c>
+      <c r="AE967">
+        <v>2.11</v>
+      </c>
+      <c r="AF967">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="968" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A968">
+        <v>20</v>
+      </c>
+      <c r="B968" t="s">
+        <v>292</v>
+      </c>
+      <c r="C968" t="s">
+        <v>293</v>
+      </c>
+      <c r="D968" s="4">
+        <v>45047</v>
+      </c>
+      <c r="E968" t="s">
+        <v>231</v>
+      </c>
+      <c r="F968" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G968" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H968" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I968">
+        <v>3</v>
+      </c>
+      <c r="J968" t="s">
+        <v>184</v>
+      </c>
+      <c r="K968" t="s">
+        <v>115</v>
+      </c>
+      <c r="L968">
+        <v>34</v>
+      </c>
+      <c r="M968">
+        <v>12</v>
+      </c>
+      <c r="N968">
+        <v>1245</v>
+      </c>
+      <c r="O968">
+        <v>2561</v>
+      </c>
+      <c r="P968">
+        <v>6</v>
+      </c>
+      <c r="Q968">
+        <v>3</v>
+      </c>
+      <c r="R968">
+        <v>7</v>
+      </c>
+      <c r="S968">
+        <v>6</v>
+      </c>
+      <c r="V968">
+        <v>2</v>
+      </c>
+      <c r="W968">
+        <v>0</v>
+      </c>
+      <c r="X968" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y968">
+        <v>4.16</v>
+      </c>
+      <c r="Z968">
+        <v>1.24</v>
+      </c>
+      <c r="AA968">
+        <v>4.16</v>
+      </c>
+      <c r="AB968">
+        <v>1.24</v>
+      </c>
+      <c r="AC968">
+        <v>4.16</v>
+      </c>
+      <c r="AD968">
+        <v>1.24</v>
+      </c>
+      <c r="AE968">
+        <v>4.16</v>
+      </c>
+      <c r="AF968">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="969" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A969">
+        <v>20</v>
+      </c>
+      <c r="B969" t="s">
+        <v>292</v>
+      </c>
+      <c r="C969" t="s">
+        <v>293</v>
+      </c>
+      <c r="D969" s="4">
+        <v>45047</v>
+      </c>
+      <c r="E969" t="s">
+        <v>231</v>
+      </c>
+      <c r="F969" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G969" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H969" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I969">
+        <v>3</v>
+      </c>
+      <c r="J969" t="s">
+        <v>149</v>
+      </c>
+      <c r="K969" t="s">
+        <v>177</v>
+      </c>
+      <c r="L969">
+        <v>3</v>
+      </c>
+      <c r="M969">
+        <v>19</v>
+      </c>
+      <c r="N969">
+        <v>5150</v>
+      </c>
+      <c r="O969">
+        <v>1823</v>
+      </c>
+      <c r="P969">
+        <v>6</v>
+      </c>
+      <c r="Q969">
+        <v>3</v>
+      </c>
+      <c r="R969">
+        <v>2</v>
+      </c>
+      <c r="S969">
+        <v>6</v>
+      </c>
+      <c r="T969">
+        <v>6</v>
+      </c>
+      <c r="U969">
+        <v>3</v>
+      </c>
+      <c r="V969">
+        <v>2</v>
+      </c>
+      <c r="W969">
+        <v>1</v>
+      </c>
+      <c r="X969" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y969">
+        <v>1.19</v>
+      </c>
+      <c r="Z969">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="AA969">
+        <v>1.19</v>
+      </c>
+      <c r="AB969">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="AC969">
+        <v>1.19</v>
+      </c>
+      <c r="AD969">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="AE969">
+        <v>1.19</v>
+      </c>
+      <c r="AF969">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="970" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A970">
+        <v>20</v>
+      </c>
+      <c r="B970" t="s">
+        <v>292</v>
+      </c>
+      <c r="C970" t="s">
+        <v>293</v>
+      </c>
+      <c r="D970" s="4">
+        <v>45047</v>
+      </c>
+      <c r="E970" t="s">
+        <v>231</v>
+      </c>
+      <c r="F970" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G970" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H970" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I970">
+        <v>3</v>
+      </c>
+      <c r="J970" t="s">
+        <v>172</v>
+      </c>
+      <c r="K970" t="s">
+        <v>58</v>
+      </c>
+      <c r="L970">
+        <v>1</v>
+      </c>
+      <c r="M970">
+        <v>23</v>
+      </c>
+      <c r="N970">
+        <v>9040</v>
+      </c>
+      <c r="O970">
+        <v>1720</v>
+      </c>
+      <c r="P970">
+        <v>6</v>
+      </c>
+      <c r="Q970">
+        <v>4</v>
+      </c>
+      <c r="R970">
+        <v>6</v>
+      </c>
+      <c r="S970">
+        <v>7</v>
+      </c>
+      <c r="T970">
+        <v>6</v>
+      </c>
+      <c r="U970">
+        <v>3</v>
+      </c>
+      <c r="V970">
+        <v>2</v>
+      </c>
+      <c r="W970">
+        <v>1</v>
+      </c>
+      <c r="X970" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y970">
+        <v>1.06</v>
+      </c>
+      <c r="Z970">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="AA970">
+        <v>1.06</v>
+      </c>
+      <c r="AB970">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="AC970">
+        <v>1.06</v>
+      </c>
+      <c r="AD970">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="AE970">
+        <v>1.06</v>
+      </c>
+      <c r="AF970">
+        <v>9.5299999999999994</v>
+      </c>
+    </row>
+    <row r="971" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A971">
+        <v>20</v>
+      </c>
+      <c r="B971" t="s">
+        <v>292</v>
+      </c>
+      <c r="C971" t="s">
+        <v>293</v>
+      </c>
+      <c r="D971" s="4">
+        <v>45048</v>
+      </c>
+      <c r="E971" t="s">
+        <v>231</v>
+      </c>
+      <c r="F971" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G971" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H971" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I971">
+        <v>3</v>
+      </c>
+      <c r="J971" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K971" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="L971">
+        <v>2</v>
+      </c>
+      <c r="M971">
+        <v>48</v>
+      </c>
+      <c r="N971">
+        <v>7001</v>
+      </c>
+      <c r="O971">
+        <v>1045</v>
+      </c>
+      <c r="P971">
+        <v>2</v>
+      </c>
+      <c r="Q971">
+        <v>6</v>
+      </c>
+      <c r="R971">
+        <v>6</v>
+      </c>
+      <c r="S971">
+        <v>2</v>
+      </c>
+      <c r="T971">
+        <v>6</v>
+      </c>
+      <c r="U971">
+        <v>1</v>
+      </c>
+      <c r="V971">
+        <v>2</v>
+      </c>
+      <c r="W971">
+        <v>1</v>
+      </c>
+      <c r="X971" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y971">
+        <v>1.08</v>
+      </c>
+      <c r="Z971">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="AA971">
+        <v>1.08</v>
+      </c>
+      <c r="AB971">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="AC971">
+        <v>1.08</v>
+      </c>
+      <c r="AD971">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="AE971">
+        <v>1.08</v>
+      </c>
+      <c r="AF971">
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="972" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A972">
+        <v>20</v>
+      </c>
+      <c r="B972" t="s">
+        <v>292</v>
+      </c>
+      <c r="C972" t="s">
+        <v>293</v>
+      </c>
+      <c r="D972" s="4">
+        <v>45048</v>
+      </c>
+      <c r="E972" t="s">
+        <v>231</v>
+      </c>
+      <c r="F972" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G972" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H972" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I972">
+        <v>3</v>
+      </c>
+      <c r="J972" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K972" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L967">
-        <v>16</v>
-      </c>
-      <c r="M967">
-        <v>29</v>
-      </c>
-      <c r="N967">
-        <v>2172</v>
-      </c>
-      <c r="O967">
-        <v>1348</v>
-      </c>
-      <c r="Y967">
-        <v>1.74</v>
-      </c>
-      <c r="Z967">
-        <v>2.11</v>
-      </c>
-      <c r="AA967">
-        <v>1.74</v>
-      </c>
-      <c r="AB967">
-        <v>2.11</v>
-      </c>
-      <c r="AC967">
-        <v>1.74</v>
-      </c>
-      <c r="AD967">
-        <v>2.11</v>
-      </c>
-      <c r="AE967">
-        <v>1.74</v>
-      </c>
-      <c r="AF967">
-        <v>2.11</v>
+      <c r="L972">
+        <v>9</v>
+      </c>
+      <c r="M972">
+        <v>32</v>
+      </c>
+      <c r="N972">
+        <v>3191</v>
+      </c>
+      <c r="O972">
+        <v>1293</v>
+      </c>
+      <c r="P972">
+        <v>6</v>
+      </c>
+      <c r="Q972">
+        <v>7</v>
+      </c>
+      <c r="R972">
+        <v>6</v>
+      </c>
+      <c r="S972">
+        <v>4</v>
+      </c>
+      <c r="T972">
+        <v>6</v>
+      </c>
+      <c r="U972">
+        <v>2</v>
+      </c>
+      <c r="V972">
+        <v>2</v>
+      </c>
+      <c r="W972">
+        <v>1</v>
+      </c>
+      <c r="X972" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y972">
+        <v>1.69</v>
+      </c>
+      <c r="Z972">
+        <v>2.21</v>
+      </c>
+      <c r="AA972">
+        <v>1.69</v>
+      </c>
+      <c r="AB972">
+        <v>2.21</v>
+      </c>
+      <c r="AC972">
+        <v>1.69</v>
+      </c>
+      <c r="AD972">
+        <v>2.21</v>
+      </c>
+      <c r="AE972">
+        <v>1.69</v>
+      </c>
+      <c r="AF972">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="973" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A973">
+        <v>20</v>
+      </c>
+      <c r="B973" t="s">
+        <v>292</v>
+      </c>
+      <c r="C973" t="s">
+        <v>293</v>
+      </c>
+      <c r="D973" s="4">
+        <v>45048</v>
+      </c>
+      <c r="E973" t="s">
+        <v>231</v>
+      </c>
+      <c r="F973" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G973" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H973" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I973">
+        <v>3</v>
+      </c>
+      <c r="J973" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K973" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L973">
+        <v>3</v>
+      </c>
+      <c r="M973">
+        <v>13</v>
+      </c>
+      <c r="N973">
+        <v>5300</v>
+      </c>
+      <c r="O973">
+        <v>2485</v>
+      </c>
+      <c r="Y973">
+        <v>1.41</v>
+      </c>
+      <c r="Z973">
+        <v>2.97</v>
+      </c>
+      <c r="AA973">
+        <v>1.41</v>
+      </c>
+      <c r="AB973">
+        <v>2.97</v>
+      </c>
+      <c r="AC973">
+        <v>1.41</v>
+      </c>
+      <c r="AD973">
+        <v>2.97</v>
+      </c>
+      <c r="AE973">
+        <v>1.41</v>
+      </c>
+      <c r="AF973">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="974" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A974">
+        <v>20</v>
+      </c>
+      <c r="B974" t="s">
+        <v>292</v>
+      </c>
+      <c r="C974" t="s">
+        <v>293</v>
+      </c>
+      <c r="D974" s="4">
+        <v>45048</v>
+      </c>
+      <c r="E974" t="s">
+        <v>231</v>
+      </c>
+      <c r="F974" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G974" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H974" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I974">
+        <v>3</v>
+      </c>
+      <c r="J974" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="K974" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="L974">
+        <v>1</v>
+      </c>
+      <c r="M974">
+        <v>28</v>
+      </c>
+      <c r="N974">
+        <v>9190</v>
+      </c>
+      <c r="O974">
+        <v>1395</v>
+      </c>
+      <c r="Y974">
+        <v>1.06</v>
+      </c>
+      <c r="Z974">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="AA974">
+        <v>1.06</v>
+      </c>
+      <c r="AB974">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="AC974">
+        <v>1.06</v>
+      </c>
+      <c r="AD974">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="AE974">
+        <v>1.06</v>
+      </c>
+      <c r="AF974">
+        <v>9.9600000000000009</v>
+      </c>
+    </row>
+    <row r="975" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A975">
+        <v>20</v>
+      </c>
+      <c r="B975" t="s">
+        <v>292</v>
+      </c>
+      <c r="C975" t="s">
+        <v>293</v>
+      </c>
+      <c r="D975" s="4">
+        <v>45049</v>
+      </c>
+      <c r="E975" t="s">
+        <v>231</v>
+      </c>
+      <c r="F975" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G975" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H975" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I975">
+        <v>3</v>
+      </c>
+      <c r="J975" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K975" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="L975">
+        <v>2</v>
+      </c>
+      <c r="M975">
+        <v>8</v>
+      </c>
+      <c r="N975">
+        <v>7271</v>
+      </c>
+      <c r="O975">
+        <v>3516</v>
+      </c>
+      <c r="Y975">
+        <v>1.36</v>
+      </c>
+      <c r="Z975">
+        <v>3.19</v>
+      </c>
+      <c r="AA975">
+        <v>1.36</v>
+      </c>
+      <c r="AB975">
+        <v>3.19</v>
+      </c>
+      <c r="AC975">
+        <v>1.36</v>
+      </c>
+      <c r="AD975">
+        <v>3.19</v>
+      </c>
+      <c r="AE975">
+        <v>1.36</v>
+      </c>
+      <c r="AF975">
+        <v>3.19</v>
       </c>
     </row>
   </sheetData>

--- a/Data_F/2023.xlsx
+++ b/Data_F/2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ocben\atpBetting\ATPBetting\Data_F\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5D69D1-236C-45BA-91EB-4C88CEEAF900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3223A03D-04B8-4248-8EE7-17793D444611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DCB7E7CB-0397-46EB-9533-78456DD3EC32}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8803" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8813" uniqueCount="305">
   <si>
     <t>WTA</t>
   </si>
@@ -1325,13 +1325,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8D3C74-6B39-4E16-89C7-829C844B99E1}">
-  <dimension ref="A1:AF975"/>
+  <dimension ref="A1:AF976"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D943" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D944" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S976" sqref="S976"/>
+      <selection pane="bottomRight" activeCell="M960" sqref="M960"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -94507,46 +94507,73 @@
         <v>3</v>
       </c>
       <c r="J973" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K973" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="K973" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="L973">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="M973">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N973">
+        <v>2485</v>
+      </c>
+      <c r="O973">
         <v>5300</v>
       </c>
-      <c r="O973">
-        <v>2485</v>
+      <c r="P973">
+        <v>6</v>
+      </c>
+      <c r="Q973">
+        <v>4</v>
+      </c>
+      <c r="R973">
+        <v>0</v>
+      </c>
+      <c r="S973">
+        <v>6</v>
+      </c>
+      <c r="T973">
+        <v>6</v>
+      </c>
+      <c r="U973">
+        <v>4</v>
+      </c>
+      <c r="V973">
+        <v>2</v>
+      </c>
+      <c r="W973">
+        <v>1</v>
+      </c>
+      <c r="X973" t="s">
+        <v>40</v>
       </c>
       <c r="Y973">
+        <v>2.97</v>
+      </c>
+      <c r="Z973">
         <v>1.41</v>
       </c>
-      <c r="Z973">
+      <c r="AA973">
         <v>2.97</v>
       </c>
-      <c r="AA973">
+      <c r="AB973">
         <v>1.41</v>
       </c>
-      <c r="AB973">
+      <c r="AC973">
         <v>2.97</v>
       </c>
-      <c r="AC973">
+      <c r="AD973">
         <v>1.41</v>
       </c>
-      <c r="AD973">
+      <c r="AE973">
         <v>2.97</v>
       </c>
-      <c r="AE973">
+      <c r="AF973">
         <v>1.41</v>
-      </c>
-      <c r="AF973">
-        <v>2.97</v>
       </c>
     </row>
     <row r="974" spans="1:32" x14ac:dyDescent="0.4">
@@ -94595,6 +94622,27 @@
       <c r="O974">
         <v>1395</v>
       </c>
+      <c r="P974">
+        <v>6</v>
+      </c>
+      <c r="Q974">
+        <v>0</v>
+      </c>
+      <c r="R974">
+        <v>6</v>
+      </c>
+      <c r="S974">
+        <v>3</v>
+      </c>
+      <c r="V974">
+        <v>2</v>
+      </c>
+      <c r="W974">
+        <v>0</v>
+      </c>
+      <c r="X974" t="s">
+        <v>40</v>
+      </c>
       <c r="Y974">
         <v>1.06</v>
       </c>
@@ -94667,28 +94715,99 @@
         <v>3516</v>
       </c>
       <c r="Y975">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="Z975">
-        <v>3.19</v>
+        <v>3.1</v>
       </c>
       <c r="AA975">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AB975">
-        <v>3.19</v>
+        <v>3.1</v>
       </c>
       <c r="AC975">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AD975">
-        <v>3.19</v>
+        <v>3.1</v>
       </c>
       <c r="AE975">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AF975">
-        <v>3.19</v>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="976" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A976">
+        <v>20</v>
+      </c>
+      <c r="B976" t="s">
+        <v>292</v>
+      </c>
+      <c r="C976" t="s">
+        <v>293</v>
+      </c>
+      <c r="D976" s="4">
+        <v>45049</v>
+      </c>
+      <c r="E976" t="s">
+        <v>231</v>
+      </c>
+      <c r="F976" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G976" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H976" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I976">
+        <v>3</v>
+      </c>
+      <c r="J976" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="K976" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L976">
+        <v>1</v>
+      </c>
+      <c r="M976">
+        <v>12</v>
+      </c>
+      <c r="N976">
+        <v>9365</v>
+      </c>
+      <c r="O976">
+        <v>2660</v>
+      </c>
+      <c r="Y976">
+        <v>1.06</v>
+      </c>
+      <c r="Z976">
+        <v>9.81</v>
+      </c>
+      <c r="AA976">
+        <v>1.06</v>
+      </c>
+      <c r="AB976">
+        <v>9.81</v>
+      </c>
+      <c r="AC976">
+        <v>1.06</v>
+      </c>
+      <c r="AD976">
+        <v>9.81</v>
+      </c>
+      <c r="AE976">
+        <v>1.06</v>
+      </c>
+      <c r="AF976">
+        <v>9.81</v>
       </c>
     </row>
   </sheetData>
